--- a/biology/Zoologie/Eunectes_akayima/Eunectes_akayima.xlsx
+++ b/biology/Zoologie/Eunectes_akayima/Eunectes_akayima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eunectes akayima est une espèce de serpents de la famille des Boidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eunectes akayima se rencontre dans le bassin de l'Orénoque, y compris en Guyane française et au Surinam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunectes akayima se rencontre dans le bassin de l'Orénoque, y compris en Guyane française et au Surinam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, akayima, s'inspire des termes en langues caribes désignant ce type de serpents avec akayi/okoyi/okoi pour « serpent » et ‐ima/‐imo pour « grand »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, akayima, s'inspire des termes en langues caribes désignant ce type de serpents avec akayi/okoyi/okoi pour « serpent » et ‐ima/‐imo pour « grand ».
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Jesús A. Rivas, Paola De La Quintana, Marco Mancuso, Luis F. Pacheco, Gilson A. Rivas, Sandra Mariotto, David Salazar-Valenzuela, Marcelo Tepeña Baihua, Penti Baihua, Gordon M. Burghardt, Freek J. Vonk, Emil Hernandez, Juán Elías García-Pérez, Bryan G. Fry et Sarah Corey-Rivas, « Disentangling the Anacondas: Revealing a New Green Species and Rethinking Yellows », Diversity, Suisse, vol. 16, no 127,‎ 2024, p. 1-28 (e-ISSN 1424-2818, DOI 10.3390/d16020127, lire en ligne, consulté le 22 février 2024).</t>
         </is>
